--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/16_Bilecik_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/16_Bilecik_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9009CE26-5FF9-4E88-A67E-A12BC1EFD382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E32E6B15-F113-4B43-9E0A-A53C6C847E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="675" xr2:uid="{1D87FCF2-0124-461A-9E02-6AB563BA3C63}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="675" xr2:uid="{78830997-3F78-4EB7-AB0B-482EDA873443}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -925,15 +925,15 @@
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{5ACF9150-E391-4C36-BE19-C57D65A04CFD}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{E53D5936-9A11-4597-A1FB-1EE74E2477FB}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{035384A3-531D-4652-93A3-AB006EC3DD8B}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{02B0754A-B875-471C-81ED-EB66952F3BEF}"/>
-    <cellStyle name="Normal 4" xfId="5" xr:uid="{0466A5B0-9DF4-4455-9475-0078DCA235F1}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{EE114A1D-D977-4AD2-B1B8-8DFFA95068F4}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{A875B081-4E80-4070-9EB4-4E2BFCEBF88C}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{EFFF9C2C-920D-4853-973D-B8F8FEFB862D}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{155ACC6E-01A3-4B42-835F-1AFAA141E46C}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{BD48C218-BAFA-4B04-9228-728D1CFBB901}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{F5244E73-46FD-47CD-A70C-A4E5C944438E}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{6861C60B-9744-4E4C-BF9B-39466C595247}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{2C23FC8B-C4F6-4717-9FC5-5E4DAC1CE57F}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{2917AC0B-B14F-4941-AC91-B195EA170396}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{397CA5E6-60AE-4C50-86D0-2F895A0B1EF4}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{A8BD14D9-8CAF-4E99-ABD9-31F15CBE3A20}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{86AC3910-8D65-417C-81FE-60F5FF280186}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{D68DA03D-781A-4A95-B0B1-9DBB551273B4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1303,7 +1303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C84F35A-61D1-4BBB-986E-BCE558137078}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1E6822-35A6-4265-9492-55F9FC97FCA0}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2547,7 +2547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EEBCFA-3F79-4CBD-A4FE-13D9A28156A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13981F5D-7328-4873-908F-2C7A41577447}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3754,7 +3754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79591318-599F-4290-82A6-8FB6F9101D2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44288659-ECB9-4BCE-B0E7-E2955FD151B6}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4957,7 +4957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF9D65F-2ABC-4322-9380-B76A1C416CA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA881E5-000E-48E3-ACD6-BACEECA5FCFD}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6156,7 +6156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D240F7-B184-4E30-9BB2-0841104C6744}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4311D5-F575-4AB2-9DD8-B55CFAA89364}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7405,7 +7405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3E7770-C73D-4EC5-8ED8-98FC974A4275}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C0FFEF-2F9B-4DBD-8D02-729E9D35D6B6}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8654,7 +8654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0015AD2-B253-42CA-9B45-EDB85CF90545}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C653AD7-5C5A-403F-8D1D-214ADCA54F99}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9903,7 +9903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6604B9A0-13C4-4376-8D75-EFC03F965930}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E952EBC-F0A1-4C8A-A9D4-0F7410543F22}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11152,7 +11152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653FA197-9E8E-4078-943B-085E38B005F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3823BBAB-40A1-489D-90C2-319FDFA61DEF}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12401,7 +12401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7399C99-7B46-458A-A6F3-FB9BD80F0A13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE35A4EC-B984-48B5-9C59-C1789BDBC93F}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13628,7 +13628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6F70F9-D73F-4733-885F-33366392B23F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5076F9-6A13-47F8-A467-E417ECC33AB2}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14855,7 +14855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E50630-2150-4808-B77E-1F8094F9D9C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308008E5-4CE8-4DAB-8B96-972C94FD116D}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
